--- a/ММвЭ/ИД23-1_МасловАН_Семинар_15.xlsx
+++ b/ММвЭ/ИД23-1_МасловАН_Семинар_15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\ММвЭ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67D32B8-0490-4D3F-A51F-1FF6655837A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F52D0-A635-4660-A5AE-17A6F430CEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6E307F84-7ADC-4C3B-B823-22B7E1B5492D}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Производство цемента </t>
   </si>
@@ -109,6 +109,39 @@
   </si>
   <si>
     <t>ё</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>dy</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>dy^</t>
+  </si>
+  <si>
+    <t>y*</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>Доверительный интервал:</t>
+  </si>
+  <si>
+    <t>(142,07;145,37)</t>
   </si>
 </sst>
 </file>
@@ -147,12 +180,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -299,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -316,6 +355,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -325,10 +380,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -337,28 +395,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1128,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CD363E-C51B-4C0D-8FD1-F40FC5DCC80A}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J1" sqref="J1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,105 +1188,129 @@
     <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="e" vm="1">
+    <row r="1" spans="1:18" ht="60" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="e" vm="1">
+      <c r="C1" s="12" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="e" vm="1">
+      <c r="E1" s="12" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6" t="e" vm="1">
+      <c r="H1" s="12" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="N1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="16" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="3"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="14"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1975</v>
       </c>
@@ -1264,14 +1332,14 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="10">
         <v>122</v>
       </c>
-      <c r="J5" s="20" cm="1">
+      <c r="J5" s="11" cm="1">
         <f t="array" ref="J5:K5">LINEST(I5:I9,H5:H9)</f>
         <v>0.49999999999999994</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="11">
         <v>123.1</v>
       </c>
       <c r="L5">
@@ -1282,8 +1350,14 @@
         <f>1/H5*(H5*J5+K5)</f>
         <v>123.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>1976</v>
       </c>
@@ -1305,26 +1379,41 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="10">
         <v>124</v>
       </c>
-      <c r="J6" s="20" cm="1">
+      <c r="J6" s="11" cm="1">
         <f t="array" ref="J6:K6">LINEST(I6:I10,H6:H10)</f>
         <v>-0.1999999999999999</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="11">
         <v>126</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L20" si="0">K6+H6*J6</f>
+        <f t="shared" ref="L6:L16" si="0">K6+H6*J6</f>
         <v>125.6</v>
       </c>
       <c r="M6">
         <f>1/H6*(SUM($J$5:J6)*H6+SUM($K$5:K6))</f>
         <v>124.85</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <f>M6-M5</f>
+        <v>1.25</v>
+      </c>
+      <c r="O6">
+        <f>O5+1/($H$20-H5)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="P6">
+        <f>O6/($H$20-1)</f>
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="R6">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>1977</v>
       </c>
@@ -1346,14 +1435,14 @@
       <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="10">
         <v>127</v>
       </c>
-      <c r="J7" s="20" cm="1">
+      <c r="J7" s="11" cm="1">
         <f t="array" ref="J7:K7">LINEST(I7:I11,H7:H11)</f>
         <v>-0.20000000000000004</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="11">
         <v>126.8</v>
       </c>
       <c r="L7">
@@ -1364,8 +1453,23 @@
         <f>1/H7*(SUM($J$5:J7)*H7+SUM($K$5:K7))</f>
         <v>125.39999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <f t="shared" ref="N7:N20" si="1">M7-M6</f>
+        <v>0.54999999999999716</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O20" si="2">O6+1/($H$20-H6)</f>
+        <v>0.1380952380952381</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P20" si="3">O7/($H$20-1)</f>
+        <v>9.2063492063492076E-3</v>
+      </c>
+      <c r="R7">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1978</v>
       </c>
@@ -1387,14 +1491,14 @@
       <c r="H8" s="5">
         <v>4</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="10">
         <v>127</v>
       </c>
-      <c r="J8" s="20" cm="1">
+      <c r="J8" s="11" cm="1">
         <f t="array" ref="J8:K8">LINEST(I8:I12,H8:H12)</f>
         <v>-0.1999999999999999</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="11">
         <v>126.4</v>
       </c>
       <c r="L8">
@@ -1402,11 +1506,25 @@
         <v>125.60000000000001</v>
       </c>
       <c r="M8">
-        <f>1/4*(SUM($J$5:J8)*H8+SUM($K$5:K8))</f>
-        <v>125.47499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>125.54</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0.14000000000001478</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0.21501831501831503</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>1.4334554334554335E-2</v>
+      </c>
+      <c r="R8">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1979</v>
       </c>
@@ -1419,21 +1537,21 @@
       <c r="D9" s="4">
         <v>131</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="17"/>
       <c r="H9" s="5">
         <v>5</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="10">
         <v>123</v>
       </c>
-      <c r="J9" s="20" cm="1">
+      <c r="J9" s="11" cm="1">
         <f t="array" ref="J9:K9">LINEST(I9:I13,H9:H13)</f>
         <v>0.9</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="11">
         <v>119.10000000000001</v>
       </c>
       <c r="L9">
@@ -1441,11 +1559,25 @@
         <v>123.60000000000001</v>
       </c>
       <c r="M9">
-        <f>1/H9*(SUM($J$5:J9)*H9+SUM($K$5:K9))</f>
-        <v>125.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>123.86</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>-1.6800000000000068</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0.29835164835164835</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1.9890109890109888E-2</v>
+      </c>
+      <c r="R9">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>1980</v>
       </c>
@@ -1458,19 +1590,19 @@
       <c r="D10" s="4">
         <v>135</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
       <c r="H10" s="5">
         <v>6</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="10">
         <v>125</v>
       </c>
-      <c r="J10" s="20" cm="1">
+      <c r="J10" s="11" cm="1">
         <f t="array" ref="J10:K10">LINEST(I10:I14,H10:H14)</f>
         <v>1.0999999999999999</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="11">
         <v>118</v>
       </c>
       <c r="L10">
@@ -1478,23 +1610,37 @@
         <v>124.6</v>
       </c>
       <c r="M10">
-        <f>1/H10*(SUM($J$5:J10)*H10+SUM($K$5:K10))</f>
-        <v>125.13333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+        <v>123.1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>-0.76000000000000512</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0.38926073926073923</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>2.595071595071595E-2</v>
+      </c>
+      <c r="R10">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
       <c r="H11" s="5">
         <v>7</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="10">
         <v>127</v>
       </c>
-      <c r="J11" s="20" cm="1">
+      <c r="J11" s="11" cm="1">
         <f t="array" ref="J11:K11">LINEST(I11:I15,H11:H15)</f>
         <v>1.4</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="11">
         <v>115.4</v>
       </c>
       <c r="L11">
@@ -1502,22 +1648,36 @@
         <v>125.2</v>
       </c>
       <c r="M11">
-        <f>1/H11*(SUM($J$5:J11)*H11+SUM($K$5:K11))</f>
-        <v>125.41428571428571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>123.9</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0.48926073926073921</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>3.2617382617382611E-2</v>
+      </c>
+      <c r="R11">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H12" s="5">
         <v>8</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="10">
         <v>124</v>
       </c>
-      <c r="J12" s="20" cm="1">
+      <c r="J12" s="11" cm="1">
         <f t="array" ref="J12:K12">LINEST(I12:I16,H12:H16)</f>
         <v>2.5</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="11">
         <v>104.6</v>
       </c>
       <c r="L12">
@@ -1525,22 +1685,36 @@
         <v>124.6</v>
       </c>
       <c r="M12">
-        <f>1/H12*(SUM($J$5:J12)*H12+SUM($K$5:K12))</f>
-        <v>125.72499999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>124.54</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000057</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0.60037185037185026</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>4.0024790024790015E-2</v>
+      </c>
+      <c r="R12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H13" s="5">
         <v>9</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="10">
         <v>128</v>
       </c>
-      <c r="J13" s="20" cm="1">
+      <c r="J13" s="11" cm="1">
         <f t="array" ref="J13:K13">LINEST(I13:I17,H13:H17)</f>
         <v>2.2999999999999994</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="11">
         <v>106.89999999999999</v>
       </c>
       <c r="L13">
@@ -1548,22 +1722,36 @@
         <v>127.6</v>
       </c>
       <c r="M13">
-        <f>1/H13*(SUM($J$5:J13)*H13+SUM($K$5:K13))</f>
-        <v>126.57777777777778</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126.32</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>1.7799999999999869</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>0.72537185037185026</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>4.8358123358123353E-2</v>
+      </c>
+      <c r="R13">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="5">
         <v>10</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="10">
         <v>130</v>
       </c>
-      <c r="J14" s="20" cm="1">
+      <c r="J14" s="11" cm="1">
         <f t="array" ref="J14:K14">LINEST(I14:I18,H14:H18)</f>
         <v>2.399999999999999</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="11">
         <v>105.60000000000002</v>
       </c>
       <c r="L14">
@@ -1571,22 +1759,36 @@
         <v>129.60000000000002</v>
       </c>
       <c r="M14">
-        <f>1/H14*(SUM($J$5:J14)*H14+SUM($K$5:K14))</f>
-        <v>127.69000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>129.5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>3.1800000000000068</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>0.86822899322899305</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>5.7881932881932871E-2</v>
+      </c>
+      <c r="R14">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H15" s="5">
         <v>11</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="10">
         <v>131</v>
       </c>
-      <c r="J15" s="20" cm="1">
+      <c r="J15" s="11" cm="1">
         <f t="array" ref="J15:K15">LINEST(I15:I19,H15:H19)</f>
         <v>2.1999999999999997</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="11">
         <v>107.80000000000001</v>
       </c>
       <c r="L15">
@@ -1594,22 +1796,33 @@
         <v>132</v>
       </c>
       <c r="M15">
-        <f>1/H15*(SUM($J$5:J15)*H15+SUM($K$5:K15))</f>
-        <v>129.03636363636366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>131.82</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>2.3199999999999932</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>1.0348956598956598</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>6.8993043993043984E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H16" s="5">
         <v>12</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="10">
         <v>135</v>
       </c>
-      <c r="J16" s="20" cm="1">
+      <c r="J16" s="11" cm="1">
         <f t="array" ref="J16:K16">LINEST(I16:I20,H16:H20)</f>
         <v>1.6999999999999993</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="11">
         <v>114.80000000000001</v>
       </c>
       <c r="L16">
@@ -1617,11 +1830,22 @@
         <v>135.19999999999999</v>
       </c>
       <c r="M16">
-        <f>1/H16*(SUM($J$5:J16)*H16+SUM($K$5:K16))</f>
-        <v>130.60833333333332</v>
-      </c>
-    </row>
-    <row r="17" spans="8:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>134.58000000000001</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>2.7600000000000193</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>1.2348956598956597</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>8.232637732637732E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="8:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H17" s="5">
         <v>13</v>
       </c>
@@ -1633,11 +1857,22 @@
         <v>136.9</v>
       </c>
       <c r="M17">
-        <f>1/H17*(SUM($J$5:J17)*H17+SUM($K$5:K17))</f>
-        <v>121.66923076923078</v>
-      </c>
-    </row>
-    <row r="18" spans="8:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>136.72</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>2.1399999999999864</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>1.4848956598956597</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>9.8993043993043983E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H18" s="5">
         <v>14</v>
       </c>
@@ -1649,11 +1884,22 @@
         <v>138.6</v>
       </c>
       <c r="M18">
-        <f>1/H18*(SUM($J$5:J18)*H18+SUM($K$5:K18))</f>
-        <v>114.00714285714284</v>
-      </c>
-    </row>
-    <row r="19" spans="8:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>2.0800000000000125</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>1.818228993228993</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>0.1212152662152662</v>
+      </c>
+    </row>
+    <row r="19" spans="8:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H19" s="5">
         <v>15</v>
       </c>
@@ -1665,11 +1911,22 @@
         <v>140.30000000000001</v>
       </c>
       <c r="M19">
-        <f>1/H19*(SUM($J$5:J19)*H19+SUM($K$5:K19))</f>
-        <v>107.36666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="8:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>140.55000000000001</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>2.3182289932289928</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>0.15454859954859951</v>
+      </c>
+    </row>
+    <row r="20" spans="8:16" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H20" s="5">
         <v>16</v>
       </c>
@@ -1681,32 +1938,108 @@
         <v>142</v>
       </c>
       <c r="M20">
-        <f>1/H20*(SUM($J$5:J20)*H20+SUM($K$5:K20))</f>
-        <v>101.55624999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H21" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>3.3182289932289928</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>0.22121526621526619</v>
+      </c>
+    </row>
+    <row r="21" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="H21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="8:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H22" s="11"/>
-      <c r="I22" s="12"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="8:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="K22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f>SUMPRODUCT(N6:N20,P6:P20)</f>
+        <v>1.7238194509194495</v>
+      </c>
+      <c r="L26">
+        <f>I20+K26</f>
+        <v>143.72381945091945</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="22">
+        <v>1991</v>
+      </c>
+      <c r="O26" s="22">
+        <f>L26</f>
+        <v>143.72381945091945</v>
+      </c>
+    </row>
+    <row r="29" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="30" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="K30" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="R1:R4"/>
+    <mergeCell ref="N1:N4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:P4"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="J1:J4"/>
     <mergeCell ref="M1:M4"/>
     <mergeCell ref="H21:I22"/>
     <mergeCell ref="K1:K4"/>
     <mergeCell ref="L1:L4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="E9:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
